--- a/resources/experiment 1/predictions/single/LinearRegression/upto time/Fallo Cardiaco (UPTO).xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/upto time/Fallo Cardiaco (UPTO).xlsx
@@ -602,7 +602,7 @@
         <v>2.032920687006712</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00569680508474207</v>
+        <v>0.005696805084742071</v>
       </c>
       <c r="L2" t="n">
         <v>7.815733565335277</v>
@@ -644,7 +644,7 @@
         <v>1.750421172319744</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.07888324261147955</v>
+        <v>0.07888324261147954</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>-1.257071943860482</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.00316725141302642</v>
+        <v>-0.003167251413026418</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.873698155557992</v>
+        <v>-4.873698155557993</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.77489463631288</v>
+        <v>-1.774894636312879</v>
       </c>
       <c r="H3" t="n">
         <v>-0.01374685804059451</v>
@@ -688,13 +688,13 @@
         <v>-0.005605959518374761</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.170558000728543</v>
+        <v>-1.170558000728541</v>
       </c>
       <c r="M3" t="n">
         <v>1.887182148867929</v>
       </c>
       <c r="N3" t="n">
-        <v>0.008707966700737859</v>
+        <v>0.008707966700737854</v>
       </c>
       <c r="O3" t="n">
         <v>7.516012418955682</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>7.894880865595517</v>
+        <v>7.894880865595518</v>
       </c>
       <c r="S3" t="n">
         <v>1.565520681861456</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.9713371618103144</v>
+        <v>0.9713371618103145</v>
       </c>
     </row>
     <row r="4">
@@ -747,22 +747,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.9929712969032172</v>
+        <v>-0.9929712969032174</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.004337117966947409</v>
+        <v>-0.004337117966947408</v>
       </c>
       <c r="F4" t="n">
         <v>-3.900172275197354</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.510684943225372</v>
+        <v>-1.510684943225371</v>
       </c>
       <c r="H4" t="n">
         <v>-0.01401976759012661</v>
       </c>
       <c r="I4" t="n">
-        <v>-5.636041537915621</v>
+        <v>-5.636041537915623</v>
       </c>
       <c r="J4" t="n">
         <v>-0.002853475132661654</v>
@@ -771,13 +771,13 @@
         <v>-0.0002810844637691394</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1815390118588249</v>
+        <v>0.1815390118588267</v>
       </c>
       <c r="M4" t="n">
         <v>2.271473022222441</v>
       </c>
       <c r="N4" t="n">
-        <v>0.008294045368407684</v>
+        <v>0.008294045368407679</v>
       </c>
       <c r="O4" t="n">
         <v>8.971206659157973</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>8.304651881994145</v>
+        <v>8.304651881994147</v>
       </c>
       <c r="S4" t="n">
         <v>1.519685395068927</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>5.97304736993349</v>
+        <v>5.973047369933489</v>
       </c>
       <c r="V4" t="n">
         <v>0.8056998516000664</v>
@@ -830,37 +830,37 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4902607793604362</v>
+        <v>-0.4902607793604363</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0005693009080313582</v>
+        <v>-0.0005693009080313561</v>
       </c>
       <c r="F5" t="n">
         <v>-1.800856033183797</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4545422606713352</v>
+        <v>-0.454542260671335</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.005769462431661453</v>
+        <v>-0.005769462431661454</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.620386689546121</v>
+        <v>-1.62038668954612</v>
       </c>
       <c r="J5" t="n">
         <v>0.1460108975340488</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.005700991435863536</v>
+        <v>-0.005700991435863538</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6311760733250082</v>
+        <v>0.6311760733250109</v>
       </c>
       <c r="M5" t="n">
         <v>1.001013588754537</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0003702420459475286</v>
+        <v>0.0003702420459475242</v>
       </c>
       <c r="O5" t="n">
         <v>3.970226432634676</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>5.240791585947625</v>
+        <v>5.240791585947626</v>
       </c>
       <c r="S5" t="n">
         <v>1.182056325656581</v>
@@ -893,7 +893,7 @@
         <v>2.753271522049865</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1586015852978649</v>
+        <v>0.1586015852978648</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3038078894664794</v>
+        <v>0.3038078894664793</v>
       </c>
       <c r="E6" t="n">
         <v>0.0002244263953436389</v>
@@ -925,7 +925,7 @@
         <v>0.8177634941756666</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001369560149522737</v>
+        <v>0.001369560149522736</v>
       </c>
       <c r="I6" t="n">
         <v>3.202406446729185</v>
@@ -934,16 +934,16 @@
         <v>1.178088056584877</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001616513468245821</v>
+        <v>0.001616513468245822</v>
       </c>
       <c r="L6" t="n">
-        <v>4.528004603737861</v>
+        <v>4.528004603737863</v>
       </c>
       <c r="M6" t="n">
         <v>1.318916795103772</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.001023977104056608</v>
+        <v>-0.001023977104056611</v>
       </c>
       <c r="O6" t="n">
         <v>5.131184524966017</v>
@@ -996,19 +996,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2090577982401903</v>
+        <v>-0.2090577982401902</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0004327918471480298</v>
+        <v>-0.0004327918471480293</v>
       </c>
       <c r="F7" t="n">
         <v>-0.8301167490846422</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2211542600286382</v>
+        <v>0.2211542600286387</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001470681151683168</v>
+        <v>0.001470681151683167</v>
       </c>
       <c r="I7" t="n">
         <v>0.8700092459198423</v>
@@ -1079,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1113245853259349</v>
+        <v>0.1113245853259353</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0009077778391711835</v>
+        <v>-0.0009077778391711848</v>
       </c>
       <c r="F8" t="n">
         <v>0.2793168526301431</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8689473871115405</v>
+        <v>0.8689473871115412</v>
       </c>
       <c r="H8" t="n">
-        <v>0.007478776776433832</v>
+        <v>0.007478776776433834</v>
       </c>
       <c r="I8" t="n">
         <v>3.264323911950644</v>
@@ -1103,7 +1103,7 @@
         <v>0.0161897556915394</v>
       </c>
       <c r="L8" t="n">
-        <v>11.49407873197556</v>
+        <v>11.49407873197555</v>
       </c>
       <c r="M8" t="n">
         <v>4.913412153784433</v>
@@ -1142,7 +1142,7 @@
         <v>2.113250082988062</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.06200751183334717</v>
+        <v>0.0620075118333472</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1165,16 +1165,16 @@
         <v>-0.1579564976753017</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001484412486590714</v>
+        <v>0.0001484412486590725</v>
       </c>
       <c r="F9" t="n">
         <v>-0.5472758605406702</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2133940935890375</v>
+        <v>0.2133940935890377</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0001550417377558788</v>
+        <v>-0.0001550417377558806</v>
       </c>
       <c r="I9" t="n">
         <v>0.8813971806577436</v>
@@ -1186,13 +1186,13 @@
         <v>-0.0005257900705814555</v>
       </c>
       <c r="L9" t="n">
-        <v>3.821649212185311</v>
+        <v>3.821649212185313</v>
       </c>
       <c r="M9" t="n">
         <v>1.756938234958406</v>
       </c>
       <c r="N9" t="n">
-        <v>0.00554654245137281</v>
+        <v>0.005546542451372809</v>
       </c>
       <c r="O9" t="n">
         <v>6.919719254851358</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3771919602383206</v>
+        <v>0.3771919602383209</v>
       </c>
       <c r="E10" t="n">
         <v>0.002225682572045792</v>
@@ -1308,7 +1308,7 @@
         <v>1.774789100524095</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.04788001564490287</v>
+        <v>0.04788001564490289</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -1328,10 +1328,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6259570009877253</v>
+        <v>0.6259570009877254</v>
       </c>
       <c r="E11" t="n">
-        <v>0.004052767368458451</v>
+        <v>0.004052767368458452</v>
       </c>
       <c r="F11" t="n">
         <v>2.522779665572042</v>
@@ -1349,7 +1349,7 @@
         <v>2.534267545757508</v>
       </c>
       <c r="K11" t="n">
-        <v>0.004452221646632698</v>
+        <v>0.004452221646632697</v>
       </c>
       <c r="L11" t="n">
         <v>9.751365514345325</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>5.945515656741726</v>
+        <v>5.945515656741725</v>
       </c>
       <c r="S11" t="n">
         <v>0.7869988982431216</v>
@@ -1391,7 +1391,7 @@
         <v>1.588420675691019</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.06467759423277436</v>
+        <v>0.06467759423277435</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -1414,13 +1414,13 @@
         <v>1.138822688694395</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004709985610950119</v>
+        <v>0.00470998561095012</v>
       </c>
       <c r="F12" t="n">
         <v>4.619430250534371</v>
       </c>
       <c r="G12" t="n">
-        <v>2.541842530990076</v>
+        <v>2.541842530990075</v>
       </c>
       <c r="H12" t="n">
         <v>0.01523428600189347</v>
@@ -1432,16 +1432,16 @@
         <v>2.157141545160129</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001371807861433504</v>
+        <v>0.001371807861433505</v>
       </c>
       <c r="L12" t="n">
-        <v>8.168114804064347</v>
+        <v>8.168114804064349</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8043820078397368</v>
+        <v>0.8043820078397372</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.003771480021091482</v>
+        <v>-0.003771480021091478</v>
       </c>
       <c r="O12" t="n">
         <v>3.079697120659402</v>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>2.479857984271623</v>
+        <v>2.479857984271622</v>
       </c>
       <c r="S12" t="n">
         <v>0.483141229452547</v>
@@ -1465,7 +1465,7 @@
         <v>2.02187532818354</v>
       </c>
       <c r="V12" t="n">
-        <v>0.2803592804557298</v>
+        <v>0.2803592804557299</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1474,7 +1474,7 @@
         <v>1.2345892939788</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.06434677344756723</v>
+        <v>0.06434677344756722</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>1.341666864922883</v>
       </c>
       <c r="E13" t="n">
-        <v>0.006069484777646411</v>
+        <v>0.006069484777646412</v>
       </c>
       <c r="F13" t="n">
         <v>5.312780899402266</v>
       </c>
       <c r="G13" t="n">
-        <v>3.273345838924192</v>
+        <v>3.273345838924191</v>
       </c>
       <c r="H13" t="n">
         <v>0.024938525502426</v>
@@ -1515,7 +1515,7 @@
         <v>3.615631733834923</v>
       </c>
       <c r="K13" t="n">
-        <v>0.009579907053170392</v>
+        <v>0.00957990705317039</v>
       </c>
       <c r="L13" t="n">
         <v>13.8427056902324</v>
@@ -1524,7 +1524,7 @@
         <v>2.754252740102107</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0131516403451885</v>
+        <v>0.01315164034518851</v>
       </c>
       <c r="O13" t="n">
         <v>10.76721749497811</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.447412407490165</v>
+        <v>2.447412407490166</v>
       </c>
       <c r="V13" t="n">
         <v>0.1522944732230127</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0.9168545995522389</v>
+        <v>0.9168545995522387</v>
       </c>
       <c r="Y13" t="n">
         <v>0.01726754962963065</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8508782454991112</v>
+        <v>0.8508782454991113</v>
       </c>
       <c r="E14" t="n">
         <v>0.003494395867443943</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>6.354147581715348</v>
+        <v>6.354147581715347</v>
       </c>
       <c r="S14" t="n">
         <v>0.7428870237607006</v>
@@ -1640,7 +1640,7 @@
         <v>1.421868128853612</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.04803632002542465</v>
+        <v>0.04803632002542466</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2765503851396097</v>
+        <v>0.2765503851396096</v>
       </c>
       <c r="E15" t="n">
-        <v>0.002028649596963703</v>
+        <v>0.002028649596963705</v>
       </c>
       <c r="F15" t="n">
         <v>1.271986089190399</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8658101149702089</v>
+        <v>0.8658101149702084</v>
       </c>
       <c r="H15" t="n">
-        <v>0.002207933177271599</v>
+        <v>0.002207933177271601</v>
       </c>
       <c r="I15" t="n">
         <v>3.405956920337409</v>
@@ -1684,25 +1684,25 @@
         <v>-0.005796023353352313</v>
       </c>
       <c r="L15" t="n">
-        <v>2.43291014737856</v>
+        <v>2.432910147378562</v>
       </c>
       <c r="M15" t="n">
         <v>0.1148450286411458</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.007967482608842802</v>
+        <v>-0.007967482608842804</v>
       </c>
       <c r="O15" t="n">
         <v>0.4244404463136711</v>
       </c>
       <c r="P15" t="n">
-        <v>0.6643322125259823</v>
+        <v>0.6643322125259824</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>2.586702306299735</v>
+        <v>2.586702306299734</v>
       </c>
       <c r="S15" t="n">
         <v>0.7985919694517061</v>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.6654296118987874</v>
+        <v>0.6654296118987875</v>
       </c>
     </row>
     <row r="16">
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2254490845747212</v>
+        <v>0.2254490845747211</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001447416501156602</v>
+        <v>0.001447416501156603</v>
       </c>
       <c r="F16" t="n">
         <v>0.9891452006464274</v>
@@ -1755,7 +1755,7 @@
         <v>0.8735702814098095</v>
       </c>
       <c r="H16" t="n">
-        <v>0.003833656066710648</v>
+        <v>0.003833656066710647</v>
       </c>
       <c r="I16" t="n">
         <v>3.394568985599508</v>
@@ -1764,16 +1764,16 @@
         <v>1.227375085611464</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0005733060293258438</v>
+        <v>-0.000573306029325843</v>
       </c>
       <c r="L16" t="n">
-        <v>4.722516249212087</v>
+        <v>4.722516249212088</v>
       </c>
       <c r="M16" t="n">
         <v>1.31385395490171</v>
       </c>
       <c r="N16" t="n">
-        <v>0.001377680123977645</v>
+        <v>0.001377680123977644</v>
       </c>
       <c r="O16" t="n">
         <v>5.146826261690856</v>
@@ -1829,13 +1829,13 @@
         <v>1.295540298477911</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002264005399324193</v>
+        <v>0.002264005399324192</v>
       </c>
       <c r="F17" t="n">
         <v>5.174207520996892</v>
       </c>
       <c r="G17" t="n">
-        <v>2.43022895652179</v>
+        <v>2.430228956521789</v>
       </c>
       <c r="H17" t="n">
         <v>0.01030609416751764</v>
@@ -1847,28 +1847,28 @@
         <v>2.058567487106957</v>
       </c>
       <c r="K17" t="n">
-        <v>0.005751446856576835</v>
+        <v>0.005751446856576837</v>
       </c>
       <c r="L17" t="n">
-        <v>7.779091513115894</v>
+        <v>7.779091513115895</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8145076882438618</v>
+        <v>0.8145076882438624</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.008574794477159987</v>
+        <v>-0.008574794477159991</v>
       </c>
       <c r="O17" t="n">
         <v>3.048413647209723</v>
       </c>
       <c r="P17" t="n">
-        <v>0.5888992567841365</v>
+        <v>0.5888992567841363</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>2.484414349971649</v>
+        <v>2.484414349971648</v>
       </c>
       <c r="S17" t="n">
         <v>0.4762475802121137</v>
@@ -1889,7 +1889,7 @@
         <v>1.230947653811855</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.06239827278465163</v>
+        <v>0.06239827278465161</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
@@ -1918,28 +1918,28 @@
         <v>-3.622783639966094</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.566491730459515</v>
+        <v>-1.566491730459514</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.01648386350731452</v>
+        <v>-0.01648386350731453</v>
       </c>
       <c r="I18" t="n">
-        <v>-5.828204076785945</v>
+        <v>-5.828204076785947</v>
       </c>
       <c r="J18" t="n">
         <v>-0.0521405041592482</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001908735033802525</v>
+        <v>0.001908735033802527</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.01297263361540058</v>
+        <v>-0.01297263361539969</v>
       </c>
       <c r="M18" t="n">
         <v>2.276535862424503</v>
       </c>
       <c r="N18" t="n">
-        <v>0.005892388140373432</v>
+        <v>0.005892388140373422</v>
       </c>
       <c r="O18" t="n">
         <v>8.955564922433133</v>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.306930064844158</v>
+        <v>8.30693006484416</v>
       </c>
       <c r="S18" t="n">
         <v>1.51623857044871</v>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>3.2663721702656</v>
+        <v>3.266372170265601</v>
       </c>
       <c r="Y18" t="n">
         <v>0.1716766789645905</v>
@@ -1995,13 +1995,13 @@
         <v>1.43194756793365</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00603922282054703</v>
+        <v>0.006039222820547031</v>
       </c>
       <c r="F19" t="n">
         <v>5.734316105561867</v>
       </c>
       <c r="G19" t="n">
-        <v>3.23768227886752</v>
+        <v>3.237682278867519</v>
       </c>
       <c r="H19" t="n">
         <v>0.022080754654393</v>
@@ -2013,7 +2013,7 @@
         <v>3.011974175581963</v>
       </c>
       <c r="K19" t="n">
-        <v>0.005452099477929754</v>
+        <v>0.005452099477929753</v>
       </c>
       <c r="L19" t="n">
         <v>11.45584376566176</v>
@@ -2022,7 +2022,7 @@
         <v>1.557775233942574</v>
       </c>
       <c r="N19" t="n">
-        <v>0.002605648998350927</v>
+        <v>0.002605648998350933</v>
       </c>
       <c r="O19" t="n">
         <v>6.037010811238504</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.292565468518841</v>
+        <v>3.29256546851884</v>
       </c>
       <c r="S19" t="n">
         <v>0.4018111297281383</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0.9051258404709319</v>
+        <v>0.9051258404709316</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.03301272569578344</v>
+        <v>0.03301272569578343</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         <v>1.070619053966525</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002822376900338701</v>
+        <v>0.0028223769003387</v>
       </c>
       <c r="F20" t="n">
         <v>4.339375958251884</v>
       </c>
       <c r="G20" t="n">
-        <v>2.138115869817211</v>
+        <v>2.13811586981721</v>
       </c>
       <c r="H20" t="n">
         <v>0.00934695575845579</v>
@@ -2096,19 +2096,19 @@
         <v>1.680438200922626</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001521481550757046</v>
+        <v>0.001521481550757047</v>
       </c>
       <c r="L20" t="n">
-        <v>6.329738677791411</v>
+        <v>6.329738677791414</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4327482349903806</v>
+        <v>0.4327482349903811</v>
       </c>
       <c r="N20" t="n">
         <v>-0.009361701758846938</v>
       </c>
       <c r="O20" t="n">
-        <v>1.585398538645013</v>
+        <v>1.585398538645012</v>
       </c>
       <c r="P20" t="n">
         <v>0.4959628744054947</v>
@@ -2138,7 +2138,7 @@
         <v>1.397500200649262</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.07903954699200133</v>
+        <v>0.07903954699200132</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -2161,7 +2161,7 @@
         <v>0.4622922272051164</v>
       </c>
       <c r="E21" t="n">
-        <v>0.002081773148855677</v>
+        <v>0.002081773148855679</v>
       </c>
       <c r="F21" t="n">
         <v>1.968123334319777</v>
@@ -2170,10 +2170,10 @@
         <v>1.185826595291859</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00439911954492741</v>
+        <v>0.004399119544927409</v>
       </c>
       <c r="I21" t="n">
-        <v>4.608808220721761</v>
+        <v>4.60880822072176</v>
       </c>
       <c r="J21" t="n">
         <v>1.051133842569421</v>
@@ -2182,19 +2182,19 @@
         <v>-0.002660967796318356</v>
       </c>
       <c r="L21" t="n">
-        <v>3.979518805440154</v>
+        <v>3.979518805440156</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4940730617935953</v>
+        <v>0.4940730617935958</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.005979746713138724</v>
+        <v>-0.005979746713138726</v>
       </c>
       <c r="O21" t="n">
-        <v>1.895276423240803</v>
+        <v>1.895276423240802</v>
       </c>
       <c r="P21" t="n">
-        <v>0.7556109013108686</v>
+        <v>0.7556109013108687</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>2.95431273295882</v>
       </c>
       <c r="V21" t="n">
-        <v>0.470670263519312</v>
+        <v>0.4706702635193119</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7214181400424646</v>
+        <v>0.7214181400424649</v>
       </c>
       <c r="E22" t="n">
         <v>0.004136152877449805</v>
@@ -2271,7 +2271,7 @@
         <v>4.017117913266917</v>
       </c>
       <c r="N22" t="n">
-        <v>0.02467792950970004</v>
+        <v>0.02467792950970005</v>
       </c>
       <c r="O22" t="n">
         <v>15.79166032658866</v>
@@ -2304,7 +2304,7 @@
         <v>1.434507297976656</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.03277826912500076</v>
+        <v>0.03277826912500077</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.816673577173149</v>
+        <v>0.8166735771731487</v>
       </c>
       <c r="E23" t="n">
         <v>0.0008816446378353074</v>
@@ -2342,19 +2342,19 @@
         <v>5.534803647538527</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8009620559874986</v>
+        <v>0.8009620559874988</v>
       </c>
       <c r="K23" t="n">
         <v>-0.00146390031695337</v>
       </c>
       <c r="L23" t="n">
-        <v>2.944753893456882</v>
+        <v>2.944753893456885</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.3181135710114256</v>
+        <v>-0.3181135710114247</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.01693965939230647</v>
+        <v>-0.01693965939230648</v>
       </c>
       <c r="O23" t="n">
         <v>-1.379736020296509</v>
@@ -2407,16 +2407,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1862696821288422</v>
+        <v>0.1862696821288421</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002058911554063084</v>
+        <v>0.002058911554063085</v>
       </c>
       <c r="F24" t="n">
         <v>0.8504508830307973</v>
       </c>
       <c r="G24" t="n">
-        <v>0.901473675026881</v>
+        <v>0.9014736750268809</v>
       </c>
       <c r="H24" t="n">
         <v>0.005065704025304603</v>
@@ -2431,7 +2431,7 @@
         <v>-0.001668215778111676</v>
       </c>
       <c r="L24" t="n">
-        <v>4.819772071949201</v>
+        <v>4.819772071949202</v>
       </c>
       <c r="M24" t="n">
         <v>1.311322534800679</v>
@@ -2467,10 +2467,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>2.082615855952822</v>
+        <v>2.082615855952821</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.1116786658604501</v>
+        <v>0.11167866586045</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -2493,16 +2493,16 @@
         <v>-0.5021826774794458</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.001762029056744941</v>
+        <v>-0.00176202905674494</v>
       </c>
       <c r="F25" t="n">
         <v>-1.945002604112139</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.474685487848806</v>
+        <v>-0.4746854878488056</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.005375787500816361</v>
+        <v>-0.005375787500816364</v>
       </c>
       <c r="I25" t="n">
         <v>-1.727855893719183</v>
@@ -2511,16 +2511,16 @@
         <v>0.7003814267604225</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0006166356369487645</v>
+        <v>0.0006166356369487654</v>
       </c>
       <c r="L25" t="n">
-        <v>2.823526352421423</v>
+        <v>2.823526352421424</v>
       </c>
       <c r="M25" t="n">
         <v>2.202553935116133</v>
       </c>
       <c r="N25" t="n">
-        <v>0.00851457616475085</v>
+        <v>0.008514576164750848</v>
       </c>
       <c r="O25" t="n">
         <v>8.684791379649441</v>
@@ -2573,19 +2573,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6190098369886328</v>
+        <v>0.6190098369886327</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.0003642070627702496</v>
+        <v>-0.00036420706277025</v>
       </c>
       <c r="F26" t="n">
         <v>2.522900604782297</v>
       </c>
       <c r="G26" t="n">
-        <v>1.074213020823574</v>
+        <v>1.074213020823573</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.0005290722894484116</v>
+        <v>-0.0005290722894484134</v>
       </c>
       <c r="I26" t="n">
         <v>4.224483142981112</v>
@@ -2594,22 +2594,22 @@
         <v>0.9525597845162486</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001718671198824974</v>
+        <v>0.001718671198824975</v>
       </c>
       <c r="L26" t="n">
-        <v>3.590495514491701</v>
+        <v>3.590495514491704</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5041987421977203</v>
+        <v>0.5041987421977208</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.01078306116920723</v>
+        <v>-0.01078306116920724</v>
       </c>
       <c r="O26" t="n">
         <v>1.863992949791124</v>
       </c>
       <c r="P26" t="n">
-        <v>0.7622416756858899</v>
+        <v>0.7622416756858897</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2665,7 +2665,7 @@
         <v>8.663011657007722</v>
       </c>
       <c r="G27" t="n">
-        <v>4.537891427331593</v>
+        <v>4.537891427331592</v>
       </c>
       <c r="H27" t="n">
         <v>0.03045182519417114</v>
@@ -2686,13 +2686,13 @@
         <v>1.873147020190778</v>
       </c>
       <c r="N27" t="n">
-        <v>0.002412258462363918</v>
+        <v>0.002412258462363926</v>
       </c>
       <c r="O27" t="n">
         <v>7.205789771932263</v>
       </c>
       <c r="P27" t="n">
-        <v>0.5914834410771345</v>
+        <v>0.5914834410771342</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -2716,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0.2326493542904156</v>
+        <v>0.2326493542904153</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.01488444407308917</v>
+        <v>-0.01488444407308918</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.09598897911807464</v>
+        <v>0.09598897911807475</v>
       </c>
       <c r="E28" t="n">
         <v>0.002089173511162465</v>
@@ -2748,10 +2748,10 @@
         <v>0.4289156768711959</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9371372350835533</v>
+        <v>0.9371372350835534</v>
       </c>
       <c r="H28" t="n">
-        <v>0.007923474873337605</v>
+        <v>0.007923474873337607</v>
       </c>
       <c r="I28" t="n">
         <v>3.575343589731931</v>
@@ -2760,13 +2760,13 @@
         <v>1.855676158377717</v>
       </c>
       <c r="K28" t="n">
-        <v>0.002459591797128961</v>
+        <v>0.00245959179712896</v>
       </c>
       <c r="L28" t="n">
         <v>7.206633996519842</v>
       </c>
       <c r="M28" t="n">
-        <v>2.507800040960212</v>
+        <v>2.507800040960211</v>
       </c>
       <c r="N28" t="n">
         <v>0.01312450008483235</v>
@@ -2825,16 +2825,16 @@
         <v>1.200079159423172</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002180619890332838</v>
+        <v>0.002180619890332839</v>
       </c>
       <c r="F29" t="n">
         <v>4.899605482027114</v>
       </c>
       <c r="G29" t="n">
-        <v>2.074548916143467</v>
+        <v>2.074548916143466</v>
       </c>
       <c r="H29" t="n">
-        <v>0.005257136951828832</v>
+        <v>0.00525713695182883</v>
       </c>
       <c r="I29" t="n">
         <v>8.047975452480291</v>
@@ -2843,13 +2843,13 @@
         <v>1.052137128156373</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.001511416275697759</v>
+        <v>-0.001511416275697757</v>
       </c>
       <c r="L29" t="n">
-        <v>3.845620930483658</v>
+        <v>3.845620930483661</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.7611978510681214</v>
+        <v>-0.7611978510681205</v>
       </c>
       <c r="N29" t="n">
         <v>-0.02110852171970164</v>
@@ -2858,7 +2858,7 @@
         <v>-3.152629013457013</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.03420583166702751</v>
+        <v>-0.03420583166702773</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>1.384861031526218</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.09429759789242523</v>
+        <v>0.0942975978924252</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
@@ -2923,16 +2923,16 @@
         <v>6.918429552055301</v>
       </c>
       <c r="J30" t="n">
-        <v>1.832035929451376</v>
+        <v>1.832035929451375</v>
       </c>
       <c r="K30" t="n">
         <v>0.004704053066535391</v>
       </c>
       <c r="L30" t="n">
-        <v>6.975480298826231</v>
+        <v>6.975480298826232</v>
       </c>
       <c r="M30" t="n">
-        <v>1.255060548199526</v>
+        <v>1.255060548199527</v>
       </c>
       <c r="N30" t="n">
         <v>-0.003205103535747695</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.810319898370588</v>
+        <v>3.810319898370587</v>
       </c>
       <c r="S30" t="n">
         <v>0.6697031706246596</v>
@@ -2988,19 +2988,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5850108705867255</v>
+        <v>0.5850108705867256</v>
       </c>
       <c r="E31" t="n">
-        <v>0.000360935456226967</v>
+        <v>0.0003609354562269659</v>
       </c>
       <c r="F31" t="n">
         <v>2.237273119976843</v>
       </c>
       <c r="G31" t="n">
-        <v>1.49346001487564</v>
+        <v>1.493460014875641</v>
       </c>
       <c r="H31" t="n">
-        <v>0.008609703732867357</v>
+        <v>0.008609703732867359</v>
       </c>
       <c r="I31" t="n">
         <v>5.692802382195148</v>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>7.684609495814312</v>
+        <v>7.684609495814313</v>
       </c>
       <c r="S31" t="n">
         <v>0.9294489649328131</v>
@@ -3051,7 +3051,7 @@
         <v>1.760329111317579</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.06216381621386895</v>
+        <v>0.06216381621386896</v>
       </c>
       <c r="Z31" t="n">
         <v>0</v>
@@ -3071,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1522707157269347</v>
+        <v>0.152270715726935</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0027840540730603</v>
+        <v>0.002784054073060301</v>
       </c>
       <c r="F32" t="n">
         <v>0.5648233982253419</v>
@@ -3092,7 +3092,7 @@
         <v>2.886750031841594</v>
       </c>
       <c r="K32" t="n">
-        <v>0.008627545180617723</v>
+        <v>0.008627545180617721</v>
       </c>
       <c r="L32" t="n">
         <v>11.23736040188919</v>
@@ -3101,7 +3101,7 @@
         <v>4.080974160171163</v>
       </c>
       <c r="N32" t="n">
-        <v>0.02685905594139112</v>
+        <v>0.02685905594139113</v>
       </c>
       <c r="O32" t="n">
         <v>16.09371734282204</v>
@@ -3134,7 +3134,7 @@
         <v>1.941341647361501</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.06452128985225257</v>
+        <v>0.06452128985225258</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
@@ -3157,7 +3157,7 @@
         <v>0.8116988430532321</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004105890920350424</v>
+        <v>0.004105890920350425</v>
       </c>
       <c r="F33" t="n">
         <v>3.21891691070142</v>
@@ -3166,7 +3166,7 @@
         <v>2.265249777164698</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0175265933717097</v>
+        <v>0.01752659337170971</v>
       </c>
       <c r="I33" t="n">
         <v>8.59029926487756</v>
@@ -3175,7 +3175,7 @@
         <v>2.937040346455132</v>
       </c>
       <c r="K33" t="n">
-        <v>0.007587277203666655</v>
+        <v>0.007587277203666654</v>
       </c>
       <c r="L33" t="n">
         <v>11.29797417240692</v>
@@ -3184,19 +3184,19 @@
         <v>2.820640407107384</v>
       </c>
       <c r="N33" t="n">
-        <v>0.01413193816286246</v>
+        <v>0.01413193816286247</v>
       </c>
       <c r="O33" t="n">
         <v>11.06145364284906</v>
       </c>
       <c r="P33" t="n">
-        <v>1.556300286550539</v>
+        <v>1.55630028655054</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>6.353008490290342</v>
+        <v>6.353008490290341</v>
       </c>
       <c r="S33" t="n">
         <v>0.7446104360708089</v>
@@ -3217,7 +3217,7 @@
         <v>1.422778538895348</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.04852344519115355</v>
+        <v>0.04852344519115356</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>6.990682874466478</v>
       </c>
       <c r="G34" t="n">
-        <v>3.494131805515427</v>
+        <v>3.494131805515426</v>
       </c>
       <c r="H34" t="n">
         <v>0.02018212221542185</v>
@@ -3258,22 +3258,22 @@
         <v>2.786445903513334</v>
       </c>
       <c r="K34" t="n">
-        <v>0.005554257208508907</v>
+        <v>0.005554257208508908</v>
       </c>
       <c r="L34" t="n">
-        <v>10.5183346764156</v>
+        <v>10.51833467641561</v>
       </c>
       <c r="M34" t="n">
-        <v>0.7430571810365221</v>
+        <v>0.7430571810365225</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.007153435066799694</v>
+        <v>-0.00715343506679969</v>
       </c>
       <c r="O34" t="n">
         <v>2.76981923606361</v>
       </c>
       <c r="P34" t="n">
-        <v>0.3226204555037413</v>
+        <v>0.3226204555037411</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3297,10 +3297,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.7268445345522181</v>
+        <v>0.7268445345522179</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.03211662755458653</v>
+        <v>0.03211662755458651</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6088546668247441</v>
+        <v>0.6088546668247442</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002746391753654133</v>
+        <v>0.002746391753654134</v>
       </c>
       <c r="F35" t="n">
         <v>2.525566261833526</v>
       </c>
       <c r="G35" t="n">
-        <v>1.533746469230582</v>
+        <v>1.533746469230581</v>
       </c>
       <c r="H35" t="n">
-        <v>0.007822353871177173</v>
+        <v>0.007822353871177174</v>
       </c>
       <c r="I35" t="n">
         <v>5.907740790541273</v>
@@ -3344,10 +3344,10 @@
         <v>-0.0006208219880702312</v>
       </c>
       <c r="L35" t="n">
-        <v>5.623383286238862</v>
+        <v>5.623383286238864</v>
       </c>
       <c r="M35" t="n">
-        <v>0.870769674845014</v>
+        <v>0.8707696748450142</v>
       </c>
       <c r="N35" t="n">
         <v>-0.00279118220341752</v>
@@ -3380,10 +3380,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>1.74051323332191</v>
+        <v>1.740513233321909</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.09560266900909015</v>
+        <v>0.09560266900909013</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
@@ -3403,16 +3403,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.2482372006860694</v>
+        <v>-0.2482372006860692</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0001787032057584518</v>
+        <v>0.0001787032057584527</v>
       </c>
       <c r="F36" t="n">
         <v>-0.9688110667002721</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2490576536457096</v>
+        <v>0.2490576536457101</v>
       </c>
       <c r="H36" t="n">
         <v>0.002702729110277123</v>
@@ -3424,13 +3424,13 @@
         <v>1.57985757169555</v>
       </c>
       <c r="K36" t="n">
-        <v>0.003602017504659182</v>
+        <v>0.003602017504659181</v>
       </c>
       <c r="L36" t="n">
-        <v>6.208511136755953</v>
+        <v>6.208511136755952</v>
       </c>
       <c r="M36" t="n">
-        <v>2.953415741117939</v>
+        <v>2.953415741117938</v>
       </c>
       <c r="N36" t="n">
         <v>0.01609253379821039</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9240566143468976</v>
+        <v>0.9240566143468975</v>
       </c>
       <c r="E37" t="n">
         <v>0.002157758295540245</v>
@@ -3495,10 +3495,10 @@
         <v>3.781933030738135</v>
       </c>
       <c r="G37" t="n">
-        <v>1.790195995878489</v>
+        <v>1.790195995878488</v>
       </c>
       <c r="H37" t="n">
-        <v>0.005923721432206026</v>
+        <v>0.005923721432206025</v>
       </c>
       <c r="I37" t="n">
         <v>6.929817486793201</v>
@@ -3507,16 +3507,16 @@
         <v>1.253021885711709</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0005186642574910791</v>
+        <v>-0.0005186642574910782</v>
       </c>
       <c r="L37" t="n">
-        <v>4.685874196992703</v>
+        <v>4.685874196992706</v>
       </c>
       <c r="M37" t="n">
-        <v>0.05605162193896218</v>
+        <v>0.05605162193896263</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.01255026626856814</v>
+        <v>-0.01255026626856815</v>
       </c>
       <c r="O37" t="n">
         <v>0.1067416933554615</v>
@@ -3528,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.669428682874417</v>
+        <v>1.669428682874416</v>
       </c>
       <c r="S37" t="n">
         <v>0.5610245045567391</v>
@@ -3549,7 +3549,7 @@
         <v>1.562231927403196</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.09470657086789323</v>
+        <v>0.09470657086789322</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
@@ -3572,7 +3572,7 @@
         <v>1.735227617336794</v>
       </c>
       <c r="E38" t="n">
-        <v>0.004257861213719559</v>
+        <v>0.004257861213719558</v>
       </c>
       <c r="F38" t="n">
         <v>6.846536303538136</v>
@@ -3599,13 +3599,13 @@
         <v>1.944597527398118</v>
       </c>
       <c r="N38" t="n">
-        <v>0.0009908990520036253</v>
+        <v>0.0009908990520036279</v>
       </c>
       <c r="O38" t="n">
         <v>7.484384183078376</v>
       </c>
       <c r="P38" t="n">
-        <v>0.8577622423575295</v>
+        <v>0.8577622423575294</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         <v>1.561407673390297</v>
       </c>
       <c r="E39" t="n">
-        <v>0.005397465810541169</v>
+        <v>0.00539746581054117</v>
       </c>
       <c r="F39" t="n">
         <v>6.294545629337098</v>
@@ -3673,22 +3673,22 @@
         <v>2.38367310281571</v>
       </c>
       <c r="K39" t="n">
-        <v>0.002419201651474949</v>
+        <v>0.002419201651474951</v>
       </c>
       <c r="L39" t="n">
-        <v>8.971726018354008</v>
+        <v>8.97172601835401</v>
       </c>
       <c r="M39" t="n">
-        <v>0.3638291478840721</v>
+        <v>0.3638291478840727</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.009141170962503773</v>
+        <v>-0.00914117096250377</v>
       </c>
       <c r="O39" t="n">
         <v>1.298983259136479</v>
       </c>
       <c r="P39" t="n">
-        <v>0.2313417667188549</v>
+        <v>0.2313417667188546</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -3712,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.8924866713478885</v>
+        <v>0.8924866713478879</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.04827077659620733</v>
+        <v>0.04827077659620731</v>
       </c>
       <c r="Z39" t="n">
         <v>0</v>
@@ -3735,37 +3735,37 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.2261601324031712</v>
+        <v>-0.2261601324031713</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.001739167461952348</v>
+        <v>-0.001739167461952347</v>
       </c>
       <c r="F40" t="n">
         <v>-0.8273301528231585</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.1903325675838274</v>
+        <v>-0.1903325675838272</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.006042371981193553</v>
+        <v>-0.006042371981193556</v>
       </c>
       <c r="I40" t="n">
         <v>-0.6096979280320927</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4994966692050866</v>
+        <v>0.4994966692050864</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.000376116381257916</v>
+        <v>-0.0003761163812579143</v>
       </c>
       <c r="L40" t="n">
-        <v>1.983273085912377</v>
+        <v>1.983273085912379</v>
       </c>
       <c r="M40" t="n">
-        <v>1.385304462109049</v>
+        <v>1.38530446210905</v>
       </c>
       <c r="N40" t="n">
-        <v>-4.367928638264636e-05</v>
+        <v>-4.367928638265156e-05</v>
       </c>
       <c r="O40" t="n">
         <v>5.425420672836967</v>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.650562602346254</v>
+        <v>5.650562602346255</v>
       </c>
       <c r="S40" t="n">
         <v>1.136221038864052</v>
@@ -3789,7 +3789,7 @@
         <v>4.446106110695366</v>
       </c>
       <c r="V40" t="n">
-        <v>0.6373284123371019</v>
+        <v>0.6373284123371018</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.7386311547047436</v>
+        <v>0.7386311547047435</v>
       </c>
     </row>
     <row r="41">
@@ -3818,19 +3818,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.514104575598455</v>
+        <v>-0.5141045755984548</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.002954757205458523</v>
+        <v>-0.002954757205458524</v>
       </c>
       <c r="F41" t="n">
         <v>-2.08914917504048</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.4948287150262767</v>
+        <v>-0.4948287150262758</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.004982112569971268</v>
+        <v>-0.00498211256997127</v>
       </c>
       <c r="I41" t="n">
         <v>-1.835325097892246</v>
@@ -3839,10 +3839,10 @@
         <v>1.254751955986796</v>
       </c>
       <c r="K41" t="n">
-        <v>0.006934262709761066</v>
+        <v>0.006934262709761067</v>
       </c>
       <c r="L41" t="n">
-        <v>5.015876631517838</v>
+        <v>5.015876631517837</v>
       </c>
       <c r="M41" t="n">
         <v>3.404094281477728</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>2.773087400045534</v>
+        <v>2.773087400045535</v>
       </c>
       <c r="Y41" t="n">
         <v>0.1251627325026437</v>
@@ -3904,13 +3904,13 @@
         <v>1.087721388129506</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004128752515143018</v>
+        <v>0.004128752515143019</v>
       </c>
       <c r="F42" t="n">
         <v>4.3365893619904</v>
       </c>
       <c r="G42" t="n">
-        <v>2.549602697429677</v>
+        <v>2.549602697429676</v>
       </c>
       <c r="H42" t="n">
         <v>0.01686000889133251</v>
@@ -3922,7 +3922,7 @@
         <v>2.736155588899796</v>
       </c>
       <c r="K42" t="n">
-        <v>0.006594525185459975</v>
+        <v>0.006594525185459974</v>
       </c>
       <c r="L42" t="n">
         <v>10.45772090589787</v>
@@ -3931,7 +3931,7 @@
         <v>2.003390934100301</v>
       </c>
       <c r="N42" t="n">
-        <v>0.005573682711728967</v>
+        <v>0.00557368271172897</v>
       </c>
       <c r="O42" t="n">
         <v>7.802082936036586</v>
@@ -3984,10 +3984,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9121347162278882</v>
+        <v>0.9121347162278881</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0009650301468266617</v>
+        <v>0.000965030146826661</v>
       </c>
       <c r="F43" t="n">
         <v>3.637786459809794</v>
@@ -3996,7 +3996,7 @@
         <v>1.770052768701018</v>
       </c>
       <c r="H43" t="n">
-        <v>0.006317396363051117</v>
+        <v>0.006317396363051116</v>
       </c>
       <c r="I43" t="n">
         <v>6.822348282620139</v>
@@ -4005,22 +4005,22 @@
         <v>1.807392414938082</v>
       </c>
       <c r="K43" t="n">
-        <v>0.005798962815321223</v>
+        <v>0.005798962815321224</v>
       </c>
       <c r="L43" t="n">
-        <v>6.878224476089118</v>
+        <v>6.87822447608912</v>
       </c>
       <c r="M43" t="n">
         <v>1.257591968300558</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.004405932149764822</v>
+        <v>-0.004405932149764823</v>
       </c>
       <c r="O43" t="n">
         <v>4.821306640370225</v>
       </c>
       <c r="P43" t="n">
-        <v>0.9414836660681519</v>
+        <v>0.9414836660681518</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -4067,19 +4067,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.4850803433164645</v>
+        <v>-0.4850803433164643</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.0004556534419406235</v>
+        <v>-0.0004556534419406229</v>
       </c>
       <c r="F44" t="n">
         <v>-1.947789200373621</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.06319866023634035</v>
+        <v>-0.06319866023633969</v>
       </c>
       <c r="H44" t="n">
-        <v>0.002137265632060362</v>
+        <v>0.002137265632060361</v>
       </c>
       <c r="I44" t="n">
         <v>-0.2481487197672472</v>
@@ -4088,10 +4088,10 @@
         <v>1.756098814737592</v>
       </c>
       <c r="K44" t="n">
-        <v>0.005689679271651694</v>
+        <v>0.005689679271651693</v>
       </c>
       <c r="L44" t="n">
-        <v>6.951508580527885</v>
+        <v>6.951508580527884</v>
       </c>
       <c r="M44" t="n">
         <v>3.773196634226053</v>
@@ -4121,7 +4121,7 @@
         <v>5.67026170112263</v>
       </c>
       <c r="V44" t="n">
-        <v>0.5951626151810416</v>
+        <v>0.5951626151810417</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4153,13 +4153,13 @@
         <v>1.97207075996719</v>
       </c>
       <c r="E45" t="n">
-        <v>0.004892217861418634</v>
+        <v>0.004892217861418633</v>
       </c>
       <c r="F45" t="n">
         <v>7.825514437211486</v>
       </c>
       <c r="G45" t="n">
-        <v>3.786244892220006</v>
+        <v>3.786244892220005</v>
       </c>
       <c r="H45" t="n">
         <v>0.0211412606244837</v>
@@ -4180,10 +4180,10 @@
         <v>1.124816634290003</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.006366527785112742</v>
+        <v>-0.006366527785112741</v>
       </c>
       <c r="O45" t="n">
-        <v>4.232834344628323</v>
+        <v>4.232834344628322</v>
       </c>
       <c r="P45" t="n">
         <v>0.4155568378823828</v>
@@ -4213,7 +4213,7 @@
         <v>0.5602919877148111</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.01547535334723682</v>
+        <v>0.01547535334723681</v>
       </c>
       <c r="Z45" t="n">
         <v>0</v>
@@ -4236,16 +4236,16 @@
         <v>0.2016052883367025</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.0009380397962705635</v>
+        <v>-0.0009380397962705648</v>
       </c>
       <c r="F46" t="n">
         <v>0.7008520587897447</v>
       </c>
       <c r="G46" t="n">
-        <v>0.833283827054868</v>
+        <v>0.8332838270548686</v>
       </c>
       <c r="H46" t="n">
-        <v>0.004621005928400832</v>
+        <v>0.004621005928400831</v>
       </c>
       <c r="I46" t="n">
         <v>3.179630577253383</v>
@@ -4257,7 +4257,7 @@
         <v>0.01206194811629876</v>
       </c>
       <c r="L46" t="n">
-        <v>9.107216807404917</v>
+        <v>9.107216807404916</v>
       </c>
       <c r="M46" t="n">
         <v>3.716934647624901</v>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.011654135638258</v>
+        <v>9.01165413563826</v>
       </c>
       <c r="S46" t="n">
         <v>1.121181143035251</v>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>4.752011920922307</v>
+        <v>4.752011920922306</v>
       </c>
       <c r="V46" t="n">
         <v>0.4544876829431601</v>
@@ -4293,10 +4293,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>2.101521323906754</v>
+        <v>2.101521323906755</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.07775268789949996</v>
+        <v>0.07775268789949998</v>
       </c>
       <c r="Z46" t="n">
         <v>0</v>
@@ -4319,10 +4319,10 @@
         <v>1.222361929630125</v>
       </c>
       <c r="E47" t="n">
-        <v>0.003600642971227891</v>
+        <v>0.00360064297122789</v>
       </c>
       <c r="F47" t="n">
-        <v>4.749885718575807</v>
+        <v>4.749885718575806</v>
       </c>
       <c r="G47" t="n">
         <v>2.877379344190928</v>
@@ -4352,7 +4352,7 @@
         <v>13.9953047283409</v>
       </c>
       <c r="P47" t="n">
-        <v>1.740515357714068</v>
+        <v>1.740515357714067</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>1.090583855262271</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.01572802194218305</v>
+        <v>0.01572802194218306</v>
       </c>
       <c r="Z47" t="n">
         <v>0</v>
@@ -4402,7 +4402,7 @@
         <v>1.217181493586153</v>
       </c>
       <c r="E48" t="n">
-        <v>0.003486995505137157</v>
+        <v>0.003486995505137156</v>
       </c>
       <c r="F48" t="n">
         <v>4.896818885765631</v>
@@ -4420,16 +4420,16 @@
         <v>2.107854516133543</v>
       </c>
       <c r="K48" t="n">
-        <v>0.00356162735900517</v>
+        <v>0.003561627359005171</v>
       </c>
       <c r="L48" t="n">
-        <v>7.97360315859012</v>
+        <v>7.973603158590121</v>
       </c>
       <c r="M48" t="n">
-        <v>0.8094448480417993</v>
+        <v>0.8094448480417997</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.006173137249125734</v>
+        <v>-0.006173137249125733</v>
       </c>
       <c r="O48" t="n">
         <v>3.064055383934563</v>
@@ -4441,10 +4441,10 @@
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>2.482136167121636</v>
+        <v>2.482136167121635</v>
       </c>
       <c r="S48" t="n">
-        <v>0.4796944048323304</v>
+        <v>0.4796944048323303</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -4462,7 +4462,7 @@
         <v>1.232768473895328</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.06337252311610944</v>
+        <v>0.06337252311610941</v>
       </c>
       <c r="Z48" t="n">
         <v>0</v>
@@ -4482,37 +4482,37 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.7271039219908315</v>
+        <v>-0.7271039219908317</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.001203657555730434</v>
+        <v>-0.001203657555730431</v>
       </c>
       <c r="F49" t="n">
         <v>-2.779834166857147</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.7667985745533852</v>
+        <v>-0.7667985745533847</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.006334925909878214</v>
+        <v>-0.006334925909878216</v>
       </c>
       <c r="I49" t="n">
         <v>-2.834625924668372</v>
       </c>
       <c r="J49" t="n">
-        <v>0.3222521405760919</v>
+        <v>0.3222521405760916</v>
       </c>
       <c r="K49" t="n">
         <v>-0.003613329668871026</v>
       </c>
       <c r="L49" t="n">
-        <v>1.374173517096941</v>
+        <v>1.374173517096943</v>
       </c>
       <c r="M49" t="n">
         <v>1.820794481862651</v>
       </c>
       <c r="N49" t="n">
-        <v>0.007727668883063898</v>
+        <v>0.007727668883063895</v>
       </c>
       <c r="O49" t="n">
         <v>7.22177627108473</v>
@@ -4524,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>6.97418996789518</v>
+        <v>6.974189967895181</v>
       </c>
       <c r="S49" t="n">
         <v>1.333123453896814</v>
@@ -4565,16 +4565,16 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8456978094551395</v>
+        <v>0.8456978094551393</v>
       </c>
       <c r="E50" t="n">
-        <v>0.003380748401353208</v>
+        <v>0.003380748401353209</v>
       </c>
       <c r="F50" t="n">
         <v>3.504544395506875</v>
       </c>
       <c r="G50" t="n">
-        <v>1.846002783112632</v>
+        <v>1.846002783112631</v>
       </c>
       <c r="H50" t="n">
         <v>0.008387817349393938</v>
@@ -4586,19 +4586,19 @@
         <v>1.302308914738295</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.002708483755062745</v>
+        <v>-0.002708483755062743</v>
       </c>
       <c r="L50" t="n">
-        <v>4.88038584246693</v>
+        <v>4.880385842466932</v>
       </c>
       <c r="M50" t="n">
-        <v>0.05098878173689947</v>
+        <v>0.05098878173689991</v>
       </c>
       <c r="N50" t="n">
         <v>-0.01014860904053389</v>
       </c>
       <c r="O50" t="n">
-        <v>0.1223834300803013</v>
+        <v>0.1223834300802995</v>
       </c>
       <c r="P50" t="n">
         <v>0.4030264920268531</v>
@@ -4625,16 +4625,16 @@
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>1.564052747486669</v>
+        <v>1.564052747486668</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.09568082119935103</v>
+        <v>0.09568082119935101</v>
       </c>
       <c r="Z50" t="n">
         <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.5187536657532248</v>
+        <v>0.5187536657532247</v>
       </c>
     </row>
     <row r="51">
@@ -4651,7 +4651,7 @@
         <v>-1.178713138968724</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.004390241518839383</v>
+        <v>-0.004390241518839382</v>
       </c>
       <c r="F51" t="n">
         <v>-4.596309520326733</v>
@@ -4672,13 +4672,13 @@
         <v>-0.003416140020803096</v>
       </c>
       <c r="L51" t="n">
-        <v>-1.365069646202769</v>
+        <v>-1.365069646202767</v>
       </c>
       <c r="M51" t="n">
-        <v>1.892244989069992</v>
+        <v>1.892244989069991</v>
       </c>
       <c r="N51" t="n">
-        <v>0.006306309472703607</v>
+        <v>0.006306309472703599</v>
       </c>
       <c r="O51" t="n">
         <v>7.500370682230842</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>7.89715904844553</v>
+        <v>7.897159048445531</v>
       </c>
       <c r="S51" t="n">
         <v>1.56207385724124</v>
@@ -4731,34 +4731,34 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.3385179036968369</v>
+        <v>-0.3385179036968365</v>
       </c>
       <c r="E52" t="n">
-        <v>0.000208965162857832</v>
+        <v>0.0002089651628578327</v>
       </c>
       <c r="F52" t="n">
         <v>-1.390346272859873</v>
       </c>
       <c r="G52" t="n">
-        <v>0.284721213702382</v>
+        <v>0.2847212137023825</v>
       </c>
       <c r="H52" t="n">
-        <v>0.005560499958310127</v>
+        <v>0.005560499958310126</v>
       </c>
       <c r="I52" t="n">
-        <v>1.050783850052265</v>
+        <v>1.050783850052266</v>
       </c>
       <c r="J52" t="n">
         <v>2.18351512994851</v>
       </c>
       <c r="K52" t="n">
-        <v>0.007729825079899819</v>
+        <v>0.007729825079899817</v>
       </c>
       <c r="L52" t="n">
-        <v>8.595373061326594</v>
+        <v>8.595373061326592</v>
       </c>
       <c r="M52" t="n">
-        <v>4.149893247277472</v>
+        <v>4.149893247277471</v>
       </c>
       <c r="N52" t="n">
         <v>0.02663852514504796</v>
@@ -4794,7 +4794,7 @@
         <v>2.446355176662875</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.09529006024804658</v>
+        <v>0.09529006024804659</v>
       </c>
       <c r="Z52" t="n">
         <v>0</v>
@@ -4817,7 +4817,7 @@
         <v>1.678945880727934</v>
       </c>
       <c r="E53" t="n">
-        <v>0.003562980651821724</v>
+        <v>0.003562980651821723</v>
       </c>
       <c r="F53" t="n">
         <v>6.710628582183989</v>
@@ -4832,16 +4832,16 @@
         <v>11.84869189250367</v>
       </c>
       <c r="J53" t="n">
-        <v>2.30974255927583</v>
+        <v>2.309742559275831</v>
       </c>
       <c r="K53" t="n">
-        <v>0.005703930897832447</v>
+        <v>0.005703930897832449</v>
       </c>
       <c r="L53" t="n">
-        <v>8.679958550142668</v>
+        <v>8.67995855014267</v>
       </c>
       <c r="M53" t="n">
-        <v>0.3714234081871659</v>
+        <v>0.3714234081871666</v>
       </c>
       <c r="N53" t="n">
         <v>-0.01274365680455515</v>
@@ -4874,10 +4874,10 @@
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>0.8897554412226796</v>
+        <v>0.8897554412226795</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.04680940109902062</v>
+        <v>0.0468094010990206</v>
       </c>
       <c r="Z53" t="n">
         <v>0</v>
@@ -4897,16 +4897,16 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3549091900313678</v>
+        <v>0.3549091900313677</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0008056594911507399</v>
+        <v>0.0008056594911507412</v>
       </c>
       <c r="F54" t="n">
         <v>1.549374724421659</v>
       </c>
       <c r="G54" t="n">
-        <v>0.8100033277360659</v>
+        <v>0.8100033277360656</v>
       </c>
       <c r="H54" t="n">
         <v>-0.0002561627399163113</v>
@@ -4921,25 +4921,25 @@
         <v>-0.003606203855780647</v>
       </c>
       <c r="L54" t="n">
-        <v>2.238398501904333</v>
+        <v>2.238398501904336</v>
       </c>
       <c r="M54" t="n">
-        <v>0.119907868843208</v>
+        <v>0.1199078688432085</v>
       </c>
       <c r="N54" t="n">
-        <v>-0.01036913983687705</v>
+        <v>-0.01036913983687706</v>
       </c>
       <c r="O54" t="n">
         <v>0.4087987095888312</v>
       </c>
       <c r="P54" t="n">
-        <v>0.667647599713493</v>
+        <v>0.6676475997134929</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>2.588980489149748</v>
+        <v>2.588980489149747</v>
       </c>
       <c r="S54" t="n">
         <v>0.7951451448314895</v>
@@ -4980,10 +4980,10 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5014716296509956</v>
+        <v>0.5014716296509955</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001470278095949196</v>
+        <v>0.001470278095949197</v>
       </c>
       <c r="F55" t="n">
         <v>2.106817651935407</v>
@@ -5004,13 +5004,13 @@
         <v>-0.001566058047532523</v>
       </c>
       <c r="L55" t="n">
-        <v>3.882262982703041</v>
+        <v>3.882262982703043</v>
       </c>
       <c r="M55" t="n">
-        <v>0.4966044818946265</v>
+        <v>0.4966044818946269</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.007180575327155851</v>
+        <v>-0.007180575327155853</v>
       </c>
       <c r="O55" t="n">
         <v>1.887455554878382</v>
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>2.995334231273357</v>
+        <v>2.995334231273356</v>
       </c>
       <c r="S55" t="n">
         <v>0.754480094969285</v>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>1.904334550034108</v>
+        <v>1.904334550034107</v>
       </c>
       <c r="Y55" t="n">
         <v>0.1107825677192531</v>
@@ -5063,10 +5063,10 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3891138583573301</v>
+        <v>0.3891138583573303</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003418410720759375</v>
+        <v>0.003418410720759377</v>
       </c>
       <c r="F56" t="n">
         <v>1.543801531898692</v>
@@ -5075,7 +5075,7 @@
         <v>1.632976982960998</v>
       </c>
       <c r="H56" t="n">
-        <v>0.01476994352583713</v>
+        <v>0.01476994352583714</v>
       </c>
       <c r="I56" t="n">
         <v>6.173208729370957</v>
@@ -5084,7 +5084,7 @@
         <v>2.710508788799551</v>
       </c>
       <c r="K56" t="n">
-        <v>0.00653988341362521</v>
+        <v>0.006539883413625209</v>
       </c>
       <c r="L56" t="n">
         <v>10.49436295811726</v>
@@ -5093,7 +5093,7 @@
         <v>3.261193267063049</v>
       </c>
       <c r="N56" t="n">
-        <v>0.01950162910427475</v>
+        <v>0.01950162910427476</v>
       </c>
       <c r="O56" t="n">
         <v>12.84216750437198</v>
@@ -5126,7 +5126,7 @@
         <v>1.76488116152626</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.06459944204251346</v>
+        <v>0.06459944204251347</v>
       </c>
       <c r="Z56" t="n">
         <v>0</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1914501181728139</v>
+        <v>0.1914501181728141</v>
       </c>
       <c r="E57" t="n">
         <v>0.002172559020153819</v>
@@ -5167,7 +5167,7 @@
         <v>2.8621065173283</v>
       </c>
       <c r="K57" t="n">
-        <v>0.009722454929403556</v>
+        <v>0.009722454929403554</v>
       </c>
       <c r="L57" t="n">
         <v>11.14010457915208</v>
@@ -5200,7 +5200,7 @@
         <v>4.737824296347351</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4048516321174597</v>
+        <v>0.4048516321174596</v>
       </c>
       <c r="W57" t="n">
         <v>0</v>
@@ -5209,7 +5209,7 @@
         <v>1.940431237319765</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.06403416468652366</v>
+        <v>0.06403416468652368</v>
       </c>
       <c r="Z57" t="n">
         <v>0</v>
@@ -5229,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9632360167927767</v>
+        <v>0.9632360167927765</v>
       </c>
       <c r="E58" t="n">
         <v>0.001546263242633763</v>
@@ -5241,7 +5241,7 @@
         <v>1.762292602261417</v>
       </c>
       <c r="H58" t="n">
-        <v>0.00469167347361207</v>
+        <v>0.004691673473612069</v>
       </c>
       <c r="I58" t="n">
         <v>6.83373621735804</v>
@@ -5250,13 +5250,13 @@
         <v>1.228378371198416</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0005762454912947535</v>
+        <v>0.0005762454912947553</v>
       </c>
       <c r="L58" t="n">
-        <v>4.58861837425559</v>
+        <v>4.588618374255592</v>
       </c>
       <c r="M58" t="n">
-        <v>0.05858304203999287</v>
+        <v>0.05858304203999376</v>
       </c>
       <c r="N58" t="n">
         <v>-0.01375109488258527</v>
@@ -5289,10 +5289,10 @@
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>1.56132151736146</v>
+        <v>1.561321517361459</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.09421944570216433</v>
+        <v>0.09421944570216431</v>
       </c>
       <c r="Z58" t="n">
         <v>0</v>
@@ -5312,10 +5312,10 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3992690285212187</v>
+        <v>0.3992690285212188</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0003078119043349932</v>
+        <v>0.0003078119043349924</v>
       </c>
       <c r="F59" t="n">
         <v>1.541135874847464</v>
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>7.277116662265697</v>
+        <v>7.277116662265698</v>
       </c>
       <c r="S59" t="n">
         <v>0.9718374271051259</v>
@@ -5395,10 +5395,10 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6991353698355118</v>
+        <v>0.6991353698355115</v>
       </c>
       <c r="E60" t="n">
-        <v>0.002716129796554752</v>
+        <v>0.002716129796554754</v>
       </c>
       <c r="F60" t="n">
         <v>2.947101467993127</v>
@@ -5419,16 +5419,16 @@
         <v>-0.004748629563310868</v>
       </c>
       <c r="L60" t="n">
-        <v>3.236521361668221</v>
+        <v>3.236521361668225</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.325707831314519</v>
+        <v>-0.3257078313145185</v>
       </c>
       <c r="N60" t="n">
-        <v>-0.01333717355025509</v>
+        <v>-0.0133371735502551</v>
       </c>
       <c r="O60" t="n">
-        <v>-1.356273415209252</v>
+        <v>-1.35627341520925</v>
       </c>
       <c r="P60" t="n">
         <v>0.3134054968357221</v>
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>1.728784474240603</v>
+        <v>1.728784474240602</v>
       </c>
       <c r="Y60" t="n">
         <v>0.1113478450752429</v>
@@ -5508,7 +5508,7 @@
         <v>2.38008754715172</v>
       </c>
       <c r="N61" t="n">
-        <v>0.008762247221450171</v>
+        <v>0.008762247221450177</v>
       </c>
       <c r="O61" t="n">
         <v>9.280739781326137</v>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>5.027102941891402</v>
+        <v>5.027102941891401</v>
       </c>
       <c r="S61" t="n">
         <v>0.5511548456582631</v>
@@ -5561,10 +5561,10 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6651364034336044</v>
+        <v>0.6651364034336045</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003441272315551969</v>
+        <v>0.00344127231555197</v>
       </c>
       <c r="F62" t="n">
         <v>2.661473983187672</v>
@@ -5582,13 +5582,13 @@
         <v>2.509624031244215</v>
       </c>
       <c r="K62" t="n">
-        <v>0.005547131395418531</v>
+        <v>0.00554713139541853</v>
       </c>
       <c r="L62" t="n">
         <v>9.654109691608213</v>
       </c>
       <c r="M62" t="n">
-        <v>2.443943794055966</v>
+        <v>2.443943794055965</v>
       </c>
       <c r="N62" t="n">
         <v>0.01094337365314126</v>
@@ -5647,7 +5647,7 @@
         <v>2.00109499224918</v>
       </c>
       <c r="E63" t="n">
-        <v>0.007391321624936535</v>
+        <v>0.007391321624936536</v>
       </c>
       <c r="F63" t="n">
         <v>7.966874411878343</v>
@@ -5674,13 +5674,13 @@
         <v>1.493918987038328</v>
       </c>
       <c r="N63" t="n">
-        <v>0.0004245225666598407</v>
+        <v>0.0004245225666598485</v>
       </c>
       <c r="O63" t="n">
         <v>5.734953795005132</v>
       </c>
       <c r="P63" t="n">
-        <v>0.500204752292248</v>
+        <v>0.5002047522922478</v>
       </c>
       <c r="Q63" t="n">
         <v>0</v>
@@ -5698,16 +5698,16 @@
         <v>0.9873805950793626</v>
       </c>
       <c r="V63" t="n">
-        <v>0.03612902045351057</v>
+        <v>0.03612902045351063</v>
       </c>
       <c r="W63" t="n">
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>0.398291491086086</v>
+        <v>0.3982914910860855</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.001269704968531626</v>
+        <v>0.001269704968531613</v>
       </c>
       <c r="Z63" t="n">
         <v>0</v>
@@ -5727,10 +5727,10 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7383147722813909</v>
+        <v>0.7383147722813906</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002104634743648271</v>
+        <v>0.002104634743648272</v>
       </c>
       <c r="F64" t="n">
         <v>3.085795785608757</v>
@@ -5751,10 +5751,10 @@
         <v>-0.003653719814525035</v>
       </c>
       <c r="L64" t="n">
-        <v>3.139265538931109</v>
+        <v>3.139265538931111</v>
       </c>
       <c r="M64" t="n">
-        <v>-0.3231764112134878</v>
+        <v>-0.3231764112134869</v>
       </c>
       <c r="N64" t="n">
         <v>-0.01453800216427222</v>
@@ -5769,10 +5769,10 @@
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>1.261935849325802</v>
+        <v>1.261935849325801</v>
       </c>
       <c r="S64" t="n">
-        <v>0.6034129667290519</v>
+        <v>0.6034129667290518</v>
       </c>
       <c r="T64" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.15277606163133</v>
+        <v>-0.1527760616313296</v>
       </c>
       <c r="E65" t="n">
         <v>0.0002620887147498064</v>
@@ -5819,7 +5819,7 @@
         <v>-0.6942090277304951</v>
       </c>
       <c r="G65" t="n">
-        <v>0.6047376940240328</v>
+        <v>0.6047376940240332</v>
       </c>
       <c r="H65" t="n">
         <v>0.007751686325965935</v>
@@ -5831,7 +5831,7 @@
         <v>2.586287930646133</v>
       </c>
       <c r="K65" t="n">
-        <v>0.01086488063693378</v>
+        <v>0.01086488063693377</v>
       </c>
       <c r="L65" t="n">
         <v>10.14198171938819</v>
@@ -5870,10 +5870,10 @@
         <v>0</v>
       </c>
       <c r="X65" t="n">
-        <v>2.280713039867204</v>
+        <v>2.280713039867205</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.07913591120642577</v>
+        <v>0.0791359112064258</v>
       </c>
       <c r="Z65" t="n">
         <v>0</v>
@@ -5896,13 +5896,13 @@
         <v>1.285385128314023</v>
       </c>
       <c r="E66" t="n">
-        <v>0.005374604215748575</v>
+        <v>0.005374604215748576</v>
       </c>
       <c r="F66" t="n">
         <v>5.176873178048119</v>
       </c>
       <c r="G66" t="n">
-        <v>2.889762404928798</v>
+        <v>2.889762404928797</v>
       </c>
       <c r="H66" t="n">
         <v>0.01865752032814323</v>
@@ -5914,16 +5914,16 @@
         <v>2.584557860371046</v>
       </c>
       <c r="K66" t="n">
-        <v>0.00341195366968163</v>
+        <v>0.003411953669681629</v>
       </c>
       <c r="L66" t="n">
         <v>9.811979284863055</v>
       </c>
       <c r="M66" t="n">
-        <v>1.181078620891155</v>
+        <v>1.181078620891156</v>
       </c>
       <c r="N66" t="n">
-        <v>-0.0005829155113702775</v>
+        <v>-0.0005829155113702732</v>
       </c>
       <c r="O66" t="n">
         <v>4.558353965948953</v>
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>2.886211726395232</v>
+        <v>2.886211726395231</v>
       </c>
       <c r="S66" t="n">
         <v>0.4424761795903426</v>
@@ -5956,7 +5956,7 @@
         <v>1.069857567224866</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.04867974957167534</v>
+        <v>0.04867974957167533</v>
       </c>
       <c r="Z66" t="n">
         <v>0</v>
@@ -6006,7 +6006,7 @@
         <v>1.631757161250945</v>
       </c>
       <c r="N67" t="n">
-        <v>-1.653902602649117e-05</v>
+        <v>-1.65390260264903e-05</v>
       </c>
       <c r="O67" t="n">
         <v>6.307784354022196</v>
@@ -6059,37 +6059,37 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.03970724250921442</v>
+        <v>0.03970724250921431</v>
       </c>
       <c r="E68" t="n">
-        <v>0.001394292949264628</v>
+        <v>0.00139429294926463</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2930079555170493</v>
+        <v>0.2930079555170491</v>
       </c>
       <c r="G68" t="n">
-        <v>0.553553801088159</v>
+        <v>0.5535538010881589</v>
       </c>
       <c r="H68" t="n">
-        <v>0.001642469699054839</v>
+        <v>0.001642469699054837</v>
       </c>
       <c r="I68" t="n">
         <v>2.191717685215158</v>
       </c>
       <c r="J68" t="n">
-        <v>0.8246022849138401</v>
+        <v>0.8246022849138399</v>
       </c>
       <c r="K68" t="n">
         <v>-0.0037083615863598</v>
       </c>
       <c r="L68" t="n">
-        <v>3.175907591150492</v>
+        <v>3.175907591150494</v>
       </c>
       <c r="M68" t="n">
-        <v>0.9346259217492598</v>
+        <v>0.9346259217492601</v>
       </c>
       <c r="N68" t="n">
-        <v>-0.0006100557717264336</v>
+        <v>-0.0006100557717264345</v>
       </c>
       <c r="O68" t="n">
         <v>3.675990284763725</v>
@@ -6119,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>2.247347582706756</v>
+        <v>2.247347582706755</v>
       </c>
       <c r="Y68" t="n">
         <v>0.1273456897363419</v>
@@ -6142,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>1.104823722292487</v>
+        <v>1.104823722292488</v>
       </c>
       <c r="E69" t="n">
         <v>0.005435128129947336</v>
@@ -6151,10 +6151,10 @@
         <v>4.333802765728916</v>
       </c>
       <c r="G69" t="n">
-        <v>2.961089525042143</v>
+        <v>2.961089525042142</v>
       </c>
       <c r="H69" t="n">
-        <v>0.02437306202420923</v>
+        <v>0.02437306202420924</v>
       </c>
       <c r="I69" t="n">
         <v>11.18816440451659</v>
@@ -6163,16 +6163,16 @@
         <v>3.791872976876966</v>
       </c>
       <c r="K69" t="n">
-        <v>0.01166756882016291</v>
+        <v>0.0116675688201629</v>
       </c>
       <c r="L69" t="n">
-        <v>14.58570313400434</v>
+        <v>14.58570313400433</v>
       </c>
       <c r="M69" t="n">
         <v>3.574033633210221</v>
       </c>
       <c r="N69" t="n">
-        <v>0.02050906718230487</v>
+        <v>0.02050906718230488</v>
       </c>
       <c r="O69" t="n">
         <v>14.01876733342816</v>
@@ -6184,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>7.16571597453756</v>
+        <v>7.165715974537559</v>
       </c>
       <c r="S69" t="n">
         <v>0.6632803363464002</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.2137501372226643</v>
+        <v>0.2137501372226642</v>
       </c>
     </row>
     <row r="70">
@@ -6225,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.1869807299572922</v>
+        <v>-0.1869807299572923</v>
       </c>
       <c r="E70" t="n">
         <v>-0.002350662514858829</v>
@@ -6234,10 +6234,10 @@
         <v>-0.6886358352075281</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2182359612008991</v>
+        <v>-0.2182359612008986</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.007274419939787509</v>
+        <v>-0.007274419939787512</v>
       </c>
       <c r="I70" t="n">
         <v>-0.7057791974672547</v>
@@ -6246,16 +6246,16 @@
         <v>0.4748531546917933</v>
       </c>
       <c r="K70" t="n">
-        <v>0.0007187933675279166</v>
+        <v>0.0007187933675279184</v>
       </c>
       <c r="L70" t="n">
-        <v>1.886017263175264</v>
+        <v>1.886017263175265</v>
       </c>
       <c r="M70" t="n">
-        <v>1.38783588221008</v>
+        <v>1.387835882210081</v>
       </c>
       <c r="N70" t="n">
-        <v>-0.001244507900399773</v>
+        <v>-0.00124450790039978</v>
       </c>
       <c r="O70" t="n">
         <v>5.417599804474548</v>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>5.65170169377126</v>
+        <v>5.651701693771261</v>
       </c>
       <c r="S70" t="n">
         <v>1.134497626553943</v>
@@ -6308,19 +6308,19 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.739025820109841</v>
+        <v>-0.7390258201098407</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.002396385704444016</v>
+        <v>-0.002396385704444015</v>
       </c>
       <c r="F71" t="n">
         <v>-2.923980737785488</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7869418017308558</v>
+        <v>-0.7869418017308554</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.005941250979033122</v>
+        <v>-0.005941250979033126</v>
       </c>
       <c r="I71" t="n">
         <v>-2.942095128841435</v>
@@ -6332,7 +6332,7 @@
         <v>0.002704297403941277</v>
       </c>
       <c r="L71" t="n">
-        <v>3.566523796193355</v>
+        <v>3.566523796193356</v>
       </c>
       <c r="M71" t="n">
         <v>3.022334828224247</v>
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>9.116220274816357</v>
+        <v>9.116220274816358</v>
       </c>
       <c r="S71" t="n">
         <v>1.440078707654626</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="U71" t="n">
-        <v>5.821654535528061</v>
+        <v>5.82165453552806</v>
       </c>
       <c r="V71" t="n">
         <v>0.700431233390554</v>
@@ -6368,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="X71" t="n">
-        <v>2.939639946882941</v>
+        <v>2.939639946882942</v>
       </c>
       <c r="Y71" t="n">
         <v>0.1418040067099934</v>
@@ -6394,16 +6394,16 @@
         <v>-0.01139405805567395</v>
       </c>
       <c r="E72" t="n">
-        <v>0.000813059853457527</v>
+        <v>0.0008130598534575279</v>
       </c>
       <c r="F72" t="n">
         <v>0.01016706697307779</v>
       </c>
       <c r="G72" t="n">
-        <v>0.5613139675277596</v>
+        <v>0.5613139675277599</v>
       </c>
       <c r="H72" t="n">
-        <v>0.003268192588493886</v>
+        <v>0.003268192588493885</v>
       </c>
       <c r="I72" t="n">
         <v>2.180329750477257</v>
@@ -6421,7 +6421,7 @@
         <v>2.133634848009824</v>
       </c>
       <c r="N72" t="n">
-        <v>0.008735106961094016</v>
+        <v>0.008735106961094015</v>
       </c>
       <c r="O72" t="n">
         <v>8.39837610014091</v>
